--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Liph-Lpar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Liph-Lpar2.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H2">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I2">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J2">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3205986666666666</v>
+        <v>0.344913</v>
       </c>
       <c r="N2">
-        <v>0.9617959999999999</v>
+        <v>1.034739</v>
       </c>
       <c r="O2">
-        <v>0.072255636064472</v>
+        <v>0.07070596358783537</v>
       </c>
       <c r="P2">
-        <v>0.072255636064472</v>
+        <v>0.07070596358783539</v>
       </c>
       <c r="Q2">
-        <v>0.008637889875999999</v>
+        <v>0.003931203403</v>
       </c>
       <c r="R2">
-        <v>0.07774100888399998</v>
+        <v>0.035380830627</v>
       </c>
       <c r="S2">
-        <v>0.0166904361756483</v>
+        <v>0.01047290430481899</v>
       </c>
       <c r="T2">
-        <v>0.01669043617564831</v>
+        <v>0.01047290430481899</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H3">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I3">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J3">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.643585</v>
       </c>
       <c r="O3">
-        <v>0.1986012789255697</v>
+        <v>0.1806419055929541</v>
       </c>
       <c r="P3">
-        <v>0.1986012789255697</v>
+        <v>0.1806419055929541</v>
       </c>
       <c r="Q3">
-        <v>0.023742036885</v>
+        <v>0.01004356687833333</v>
       </c>
       <c r="R3">
-        <v>0.213678331965</v>
+        <v>0.09039210190499999</v>
       </c>
       <c r="S3">
-        <v>0.04587520297173332</v>
+        <v>0.02675651804624636</v>
       </c>
       <c r="T3">
-        <v>0.04587520297173334</v>
+        <v>0.02675651804624637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H4">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I4">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J4">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.392080333333333</v>
+        <v>2.052799333333333</v>
       </c>
       <c r="N4">
-        <v>4.176241</v>
+        <v>6.158397999999999</v>
       </c>
       <c r="O4">
-        <v>0.3137431948287648</v>
+        <v>0.420816712956019</v>
       </c>
       <c r="P4">
-        <v>0.3137431948287648</v>
+        <v>0.420816712956019</v>
       </c>
       <c r="Q4">
-        <v>0.037506820421</v>
+        <v>0.02339712253488889</v>
       </c>
       <c r="R4">
-        <v>0.337561383789</v>
+        <v>0.210574102814</v>
       </c>
       <c r="S4">
-        <v>0.07247200431757428</v>
+        <v>0.06233099643967095</v>
       </c>
       <c r="T4">
-        <v>0.07247200431757428</v>
+        <v>0.06233099643967095</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H5">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I5">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J5">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4581243333333334</v>
+        <v>0.2678313333333334</v>
       </c>
       <c r="N5">
-        <v>1.374373</v>
+        <v>0.803494</v>
       </c>
       <c r="O5">
-        <v>0.1032507884258581</v>
+        <v>0.05490449041453371</v>
       </c>
       <c r="P5">
-        <v>0.1032507884258581</v>
+        <v>0.05490449041453372</v>
       </c>
       <c r="Q5">
-        <v>0.012343243913</v>
+        <v>0.003052652260222223</v>
       </c>
       <c r="R5">
-        <v>0.111089195217</v>
+        <v>0.027473870342</v>
       </c>
       <c r="S5">
-        <v>0.02385005223356542</v>
+        <v>0.008132404182596996</v>
       </c>
       <c r="T5">
-        <v>0.02385005223356543</v>
+        <v>0.008132404182596996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.026943</v>
+        <v>0.01139766666666667</v>
       </c>
       <c r="H6">
-        <v>0.080829</v>
+        <v>0.034193</v>
       </c>
       <c r="I6">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="J6">
-        <v>0.2309914781008339</v>
+        <v>0.1481191086775714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.385007333333333</v>
+        <v>1.331393</v>
       </c>
       <c r="N6">
-        <v>4.155022</v>
+        <v>3.994179</v>
       </c>
       <c r="O6">
-        <v>0.3121491017553354</v>
+        <v>0.2729309274486578</v>
       </c>
       <c r="P6">
-        <v>0.3121491017553354</v>
+        <v>0.2729309274486578</v>
       </c>
       <c r="Q6">
-        <v>0.037316252582</v>
+        <v>0.01517477361633333</v>
       </c>
       <c r="R6">
-        <v>0.335846273238</v>
+        <v>0.136572962547</v>
       </c>
       <c r="S6">
-        <v>0.07210378240231254</v>
+        <v>0.04042628570423809</v>
       </c>
       <c r="T6">
-        <v>0.07210378240231254</v>
+        <v>0.0404262857042381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H7">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I7">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J7">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3205986666666666</v>
+        <v>0.344913</v>
       </c>
       <c r="N7">
-        <v>0.9617959999999999</v>
+        <v>1.034739</v>
       </c>
       <c r="O7">
-        <v>0.072255636064472</v>
+        <v>0.07070596358783537</v>
       </c>
       <c r="P7">
-        <v>0.072255636064472</v>
+        <v>0.07070596358783539</v>
       </c>
       <c r="Q7">
-        <v>0.02675534799422222</v>
+        <v>0.005244747078</v>
       </c>
       <c r="R7">
-        <v>0.240798131948</v>
+        <v>0.047202723702</v>
       </c>
       <c r="S7">
-        <v>0.05169762922025309</v>
+        <v>0.01397224427740277</v>
       </c>
       <c r="T7">
-        <v>0.05169762922025309</v>
+        <v>0.01397224427740277</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H8">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I8">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J8">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.643585</v>
       </c>
       <c r="O8">
-        <v>0.1986012789255697</v>
+        <v>0.1806419055929541</v>
       </c>
       <c r="P8">
-        <v>0.1986012789255697</v>
+        <v>0.1806419055929541</v>
       </c>
       <c r="Q8">
-        <v>0.07353954126166666</v>
+        <v>0.01339945117</v>
       </c>
       <c r="R8">
-        <v>0.661855871355</v>
+        <v>0.12059506053</v>
       </c>
       <c r="S8">
-        <v>0.1420957013152714</v>
+        <v>0.03569674612446017</v>
       </c>
       <c r="T8">
-        <v>0.1420957013152714</v>
+        <v>0.03569674612446017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H9">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I9">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J9">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.392080333333333</v>
+        <v>2.052799333333333</v>
       </c>
       <c r="N9">
-        <v>4.176241</v>
+        <v>6.158397999999999</v>
       </c>
       <c r="O9">
-        <v>0.3137431948287648</v>
+        <v>0.420816712956019</v>
       </c>
       <c r="P9">
-        <v>0.3137431948287648</v>
+        <v>0.420816712956019</v>
       </c>
       <c r="Q9">
-        <v>0.1161751361647778</v>
+        <v>0.03121486666266666</v>
       </c>
       <c r="R9">
-        <v>1.045576225483</v>
+        <v>0.280933799964</v>
       </c>
       <c r="S9">
-        <v>0.2244777049940102</v>
+        <v>0.08315782164726432</v>
       </c>
       <c r="T9">
-        <v>0.2244777049940102</v>
+        <v>0.08315782164726433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H10">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I10">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J10">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4581243333333334</v>
+        <v>0.2678313333333334</v>
       </c>
       <c r="N10">
-        <v>1.374373</v>
+        <v>0.803494</v>
       </c>
       <c r="O10">
-        <v>0.1032507884258581</v>
+        <v>0.05490449041453371</v>
       </c>
       <c r="P10">
-        <v>0.1032507884258581</v>
+        <v>0.05490449041453372</v>
       </c>
       <c r="Q10">
-        <v>0.03823246082211112</v>
+        <v>0.004072643254666667</v>
       </c>
       <c r="R10">
-        <v>0.344092147399</v>
+        <v>0.036653789292</v>
       </c>
       <c r="S10">
-        <v>0.07387411235264746</v>
+        <v>0.01084970648968238</v>
       </c>
       <c r="T10">
-        <v>0.07387411235264746</v>
+        <v>0.01084970648968239</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.08345433333333334</v>
+        <v>0.015206</v>
       </c>
       <c r="H11">
-        <v>0.250363</v>
+        <v>0.045618</v>
       </c>
       <c r="I11">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="J11">
-        <v>0.7154823074856682</v>
+        <v>0.197610548932631</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.385007333333333</v>
+        <v>1.331393</v>
       </c>
       <c r="N11">
-        <v>4.155022</v>
+        <v>3.994179</v>
       </c>
       <c r="O11">
-        <v>0.3121491017553354</v>
+        <v>0.2729309274486578</v>
       </c>
       <c r="P11">
-        <v>0.3121491017553354</v>
+        <v>0.2729309274486578</v>
       </c>
       <c r="Q11">
-        <v>0.1155848636651111</v>
+        <v>0.020245161958</v>
       </c>
       <c r="R11">
-        <v>1.040263772986</v>
+        <v>0.182206457622</v>
       </c>
       <c r="S11">
-        <v>0.223337159603486</v>
+        <v>0.05393403039382134</v>
       </c>
       <c r="T11">
-        <v>0.223337159603486</v>
+        <v>0.05393403039382136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>25</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H12">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I12">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J12">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.3205986666666666</v>
+        <v>0.344913</v>
       </c>
       <c r="N12">
-        <v>0.9617959999999999</v>
+        <v>1.034739</v>
       </c>
       <c r="O12">
-        <v>0.072255636064472</v>
+        <v>0.07070596358783537</v>
       </c>
       <c r="P12">
-        <v>0.072255636064472</v>
+        <v>0.07070596358783539</v>
       </c>
       <c r="Q12">
-        <v>0.002001604342222222</v>
+        <v>0.017364874927</v>
       </c>
       <c r="R12">
-        <v>0.01801443908</v>
+        <v>0.156283874343</v>
       </c>
       <c r="S12">
-        <v>0.003867570668570597</v>
+        <v>0.04626081500561362</v>
       </c>
       <c r="T12">
-        <v>0.003867570668570597</v>
+        <v>0.04626081500561362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>26</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H13">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I13">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J13">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.643585</v>
       </c>
       <c r="O13">
-        <v>0.1986012789255697</v>
+        <v>0.1806419055929541</v>
       </c>
       <c r="P13">
-        <v>0.1986012789255697</v>
+        <v>0.1806419055929541</v>
       </c>
       <c r="Q13">
-        <v>0.005501594116666666</v>
+        <v>0.04436434973833334</v>
       </c>
       <c r="R13">
-        <v>0.04951434705</v>
+        <v>0.399279147645</v>
       </c>
       <c r="S13">
-        <v>0.01063037463856494</v>
+        <v>0.1181886414222476</v>
       </c>
       <c r="T13">
-        <v>0.01063037463856494</v>
+        <v>0.1181886414222476</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H14">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I14">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J14">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.392080333333333</v>
+        <v>2.052799333333333</v>
       </c>
       <c r="N14">
-        <v>4.176241</v>
+        <v>6.158397999999999</v>
       </c>
       <c r="O14">
-        <v>0.3137431948287648</v>
+        <v>0.420816712956019</v>
       </c>
       <c r="P14">
-        <v>0.3137431948287648</v>
+        <v>0.420816712956019</v>
       </c>
       <c r="Q14">
-        <v>0.008691221547777779</v>
+        <v>0.1033495509695556</v>
       </c>
       <c r="R14">
-        <v>0.07822099393</v>
+        <v>0.9301459587259999</v>
       </c>
       <c r="S14">
-        <v>0.0167934855171803</v>
+        <v>0.2753278948690838</v>
       </c>
       <c r="T14">
-        <v>0.0167934855171803</v>
+        <v>0.2753278948690838</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H15">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I15">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J15">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4581243333333334</v>
+        <v>0.2678313333333334</v>
       </c>
       <c r="N15">
-        <v>1.374373</v>
+        <v>0.803494</v>
       </c>
       <c r="O15">
-        <v>0.1032507884258581</v>
+        <v>0.05490449041453371</v>
       </c>
       <c r="P15">
-        <v>0.1032507884258581</v>
+        <v>0.05490449041453372</v>
       </c>
       <c r="Q15">
-        <v>0.002860222921111111</v>
+        <v>0.01348414703088889</v>
       </c>
       <c r="R15">
-        <v>0.02574200629</v>
+        <v>0.121357323278</v>
       </c>
       <c r="S15">
-        <v>0.005526623839645183</v>
+        <v>0.03592237974225434</v>
       </c>
       <c r="T15">
-        <v>0.005526623839645183</v>
+        <v>0.03592237974225434</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.006243333333333333</v>
+        <v>0.05034566666666667</v>
       </c>
       <c r="H16">
-        <v>0.01873</v>
+        <v>0.151037</v>
       </c>
       <c r="I16">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="J16">
-        <v>0.05352621441349786</v>
+        <v>0.6542703423897976</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.385007333333333</v>
+        <v>1.331393</v>
       </c>
       <c r="N16">
-        <v>4.155022</v>
+        <v>3.994179</v>
       </c>
       <c r="O16">
-        <v>0.3121491017553354</v>
+        <v>0.2729309274486578</v>
       </c>
       <c r="P16">
-        <v>0.3121491017553354</v>
+        <v>0.2729309274486578</v>
       </c>
       <c r="Q16">
-        <v>0.008647062451111111</v>
+        <v>0.06702986818033334</v>
       </c>
       <c r="R16">
-        <v>0.07782356205999999</v>
+        <v>0.603268813623</v>
       </c>
       <c r="S16">
-        <v>0.01670815974953685</v>
+        <v>0.1785706113505983</v>
       </c>
       <c r="T16">
-        <v>0.01670815974953685</v>
+        <v>0.1785706113505984</v>
       </c>
     </row>
   </sheetData>
